--- a/medicine/Enfance/George_Saunders/George_Saunders.xlsx
+++ b/medicine/Enfance/George_Saunders/George_Saunders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Saunders, né le 2 décembre 1958 à Amarillo au Texas, est un écrivain américain. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né au Texas, George Saunders passe son enfance et son adolescence à Oak Forest, dans l'Illinois, près de Chicago, et fréquente l'école catholique St. Damian et est diplômé de la Oak Forest High School de Oak Forest. En 1981, il obtient un diplôme d'ingénieur en géophysique de la Colorado School of Mines de Golden (Colorado).
 Il s'inscrit ensuite à l'université de Syracuse, dans l'État de New York, et complète, en 1988, une maîtrise en écriture créative. C'est dans les salles de classe qu'il rencontre Paula Redick, une collègue écrivaine, qui deviendra sa femme.
@@ -555,49 +569,158 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-(en) The Brief and Frightening Reign of Phil, 2005
-Lincoln au Bardo, Fayard, 2019 ((en) Lincoln in the Bardo, 2017)  (ISBN 2-21-370962-9)Réédition, Le Livre de poche, coll. « SF », 2020  (ISBN 978-2-253-24097-6)[1],[2],[3]
-Roman de littérature d'enfance et de jeunesse
-Les Gloutons Glouterons du village de Frip, Gallimard, coll. « Jeunesse », 2003 ((en) The Very Persistent Gappers of Frip, 2000), trad. Guillaume Marlière, 92 p.  (ISBN 2-07-053612-2)Illustrations de Lane Smith
-Recueils de nouvelles
-Grandeur et décadence d'un parc d'attractions, Gallimard, coll. « La Noire », 2000 ((en) Civilwarland in Bad Decline, 1996), trad. Marie-Lise et Guillaume Marlière, 223 p.  (ISBN 2-07-049844-1)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) The Brief and Frightening Reign of Phil, 2005
+Lincoln au Bardo, Fayard, 2019 ((en) Lincoln in the Bardo, 2017)  (ISBN 2-21-370962-9)Réédition, Le Livre de poche, coll. « SF », 2020  (ISBN 978-2-253-24097-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>George_Saunders</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Saunders</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Roman de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Gloutons Glouterons du village de Frip, Gallimard, coll. « Jeunesse », 2003 ((en) The Very Persistent Gappers of Frip, 2000), trad. Guillaume Marlière, 92 p.  (ISBN 2-07-053612-2)Illustrations de Lane Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>George_Saunders</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Saunders</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Grandeur et décadence d'un parc d'attractions, Gallimard, coll. « La Noire », 2000 ((en) Civilwarland in Bad Decline, 1996), trad. Marie-Lise et Guillaume Marlière, 223 p.  (ISBN 2-07-049844-1)
 Pastoralia, Gallimard, coll. « La Noire », 2004 ((en) Pastoralia, 2000), trad. Marie-Lise et Guillaume Marlière, 193 p.  (ISBN 2-07-076154-1)
 (en) In Persuasion Nation, 2006
 Dix décembre, L'Olivier, coll. « Littérature étrangère », 2015 ((en) Tenth of December, 2013), trad. Olivier Deparis, 280 p.  (ISBN 978-2-8236-0278-4)
-(en) Liberation Day, 2022
-Essais
-(en) A Bee Stung Me, So I Killed All the Fish, 2006
+(en) Liberation Day, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>George_Saunders</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Saunders</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) A Bee Stung Me, So I Killed All the Fish, 2006
 (en) The Braindead Megaphone, 2007
 Soyez gentils : petit éloge de la bonté à l'usage des générations futures, Fayard, 2019 ((en) Congratulations, by the way: Some Thoughts on Kindness, 2014), trad. Pierre Demarty, 58 p.  (ISBN 978-2-213-70943-7)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>George_Saunders</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/George_Saunders</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Dix décembre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le recueil Dix décembre (Tenth of December) compte dix nouvelles :
 Tour d'honneur (25 pages) : Kyle Boot (17-17 ans), bien encadré par ses parents, est chargé d'installer une géode dans le jardin familial. Il assiste à l'enlèvement d'Alison Pope, 15 ans, une voisine, par un repris de justice, Melvin : intervenir ou pas ?
@@ -613,31 +736,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>George_Saunders</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/George_Saunders</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa nouvelle est adaptée au cinéma dans le film Spiderhead de Joseph Kosinski, prévu sur Netflix en 2022.
 </t>
